--- a/bdd/4.4/WFBS Recursos Rest.xlsx
+++ b/bdd/4.4/WFBS Recursos Rest.xlsx
@@ -678,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -717,21 +717,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -740,15 +725,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,9 +740,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,30 +784,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,9 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,26 +838,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,13 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,31 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,13 +923,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +959,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,97 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +1066,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1084,11 +1093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,26 +1123,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,163 +1166,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1639,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="B382" sqref="B382"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -13245,7 +13245,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26">
+    <row r="374" ht="13.5" spans="1:26">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -13273,7 +13273,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26">
+    <row r="375" ht="13.5" spans="1:26">
       <c r="A375" s="3" t="s">
         <v>1</v>
       </c>
@@ -13305,7 +13305,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26">
+    <row r="376" ht="13.5" spans="1:26">
       <c r="A376" s="3" t="s">
         <v>3</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26">
+    <row r="377" ht="13.5" spans="1:26">
       <c r="A377" s="3" t="s">
         <v>5</v>
       </c>
@@ -13369,7 +13369,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26">
+    <row r="378" ht="13.5" spans="1:26">
       <c r="A378" s="3" t="s">
         <v>7</v>
       </c>
@@ -13401,7 +13401,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26">
+    <row r="379" ht="13.5" spans="1:26">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -13429,7 +13429,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26">
+    <row r="380" ht="13.5" spans="1:26">
       <c r="A380" s="3" t="s">
         <v>1</v>
       </c>
@@ -13461,7 +13461,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26">
+    <row r="381" ht="13.5" spans="1:26">
       <c r="A381" s="3" t="s">
         <v>3</v>
       </c>
@@ -13493,7 +13493,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26">
+    <row r="382" ht="13.5" spans="1:26">
       <c r="A382" s="3" t="s">
         <v>5</v>
       </c>
@@ -13525,7 +13525,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26">
+    <row r="383" ht="13.5" spans="1:26">
       <c r="A383" s="3" t="s">
         <v>7</v>
       </c>
@@ -13557,7 +13557,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26">
+    <row r="384" ht="13.5" spans="1:26">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
